--- a/plots/Blocks_vs_authors.xlsx
+++ b/plots/Blocks_vs_authors.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,7 +399,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>56642</v>
+        <v>63400</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -410,7 +410,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>50292</v>
+        <v>56517</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -421,7 +421,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>15141</v>
+        <v>17377</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -432,7 +432,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>6596</v>
+        <v>7841</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -443,7 +443,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>3297</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -454,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>2061</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -465,7 +465,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>1259</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -476,7 +476,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>875</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -487,7 +487,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>672</v>
+        <v>826</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -498,7 +498,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>491</v>
+        <v>619</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -509,7 +509,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>388</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -520,7 +520,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>320</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -531,7 +531,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>244</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>216</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -553,7 +553,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>178</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -564,7 +564,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>152</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -575,7 +575,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>145</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -586,7 +586,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>106</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -597,7 +597,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>89</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -608,7 +608,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -619,7 +619,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>65</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -630,7 +630,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -641,7 +641,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>51</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -652,7 +652,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -663,7 +663,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -674,7 +674,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -685,7 +685,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -696,7 +696,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -707,7 +707,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -718,7 +718,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -729,7 +729,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -740,7 +740,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -751,7 +751,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -762,7 +762,7 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -773,7 +773,7 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -784,7 +784,7 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -795,7 +795,7 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -806,7 +806,7 @@
         <v>38</v>
       </c>
       <c r="C39">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -817,7 +817,7 @@
         <v>39</v>
       </c>
       <c r="C40">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -828,7 +828,7 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -839,7 +839,7 @@
         <v>41</v>
       </c>
       <c r="C42">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -850,7 +850,7 @@
         <v>42</v>
       </c>
       <c r="C43">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -861,7 +861,7 @@
         <v>43</v>
       </c>
       <c r="C44">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -872,7 +872,7 @@
         <v>44</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -883,7 +883,7 @@
         <v>45</v>
       </c>
       <c r="C46">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -894,7 +894,7 @@
         <v>46</v>
       </c>
       <c r="C47">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -905,7 +905,7 @@
         <v>47</v>
       </c>
       <c r="C48">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -916,7 +916,7 @@
         <v>48</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -927,7 +927,7 @@
         <v>49</v>
       </c>
       <c r="C50">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -938,7 +938,7 @@
         <v>50</v>
       </c>
       <c r="C51">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -946,10 +946,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C52">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -957,10 +957,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C53">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -968,7 +968,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -979,10 +979,10 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -990,10 +990,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1001,10 +1001,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C57">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1012,10 +1012,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1023,10 +1023,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1034,10 +1034,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C60">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1045,10 +1045,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1056,10 +1056,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1067,10 +1067,10 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1078,10 +1078,10 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C64">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1089,7 +1089,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -1100,7 +1100,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -1111,10 +1111,10 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1122,10 +1122,10 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1133,10 +1133,10 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1144,10 +1144,10 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1158,7 +1158,7 @@
         <v>72</v>
       </c>
       <c r="C71">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1177,10 +1177,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C73">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1188,10 +1188,10 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1199,7 +1199,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -1210,7 +1210,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -1221,10 +1221,10 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1232,10 +1232,10 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1243,10 +1243,10 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1254,10 +1254,10 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1265,10 +1265,10 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C81">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1276,10 +1276,10 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C82">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1287,7 +1287,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -1301,7 +1301,7 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1312,7 +1312,7 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1334,7 +1334,7 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1342,7 +1342,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -1353,10 +1353,10 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1364,7 +1364,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -1375,10 +1375,10 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1386,7 +1386,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -1397,10 +1397,10 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1408,10 +1408,10 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1419,7 +1419,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -1430,7 +1430,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -1441,10 +1441,10 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1452,7 +1452,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -1463,7 +1463,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -1474,7 +1474,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -1485,10 +1485,10 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1496,7 +1496,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -1507,10 +1507,10 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1518,10 +1518,10 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1529,7 +1529,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -1540,7 +1540,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -1551,10 +1551,10 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1562,7 +1562,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -1573,10 +1573,10 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1584,10 +1584,10 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1595,7 +1595,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -1606,9 +1606,108 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>208</v>
+        <v>142</v>
       </c>
       <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>146</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>150</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>153</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>156</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>158</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>161</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>168</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>173</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>237</v>
+      </c>
+      <c r="C121">
         <v>1</v>
       </c>
     </row>
